--- a/biology/Médecine/Jacques_de_Cahaignes/Jacques_de_Cahaignes.xlsx
+++ b/biology/Médecine/Jacques_de_Cahaignes/Jacques_de_Cahaignes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques de Cahaignes, né en 1548 à Caen où il est mort en 1617, est un médecin et professeur normand, élève et traducteur de Julien Le Paulmier de Grantemesnil.
-Il est le fils de Pierre de Cahaignes (mort le 13 septembre 1563), originaire de Mathieu, médecin et professeur de médecine réputé à Caen[1]. Jacques est docteur de l’Université de Caen dont il devient le recteur à plusieurs reprises (1574-1575, 1609, 1612)[2] et Professeur du Roy en 1583[3]. Il est rédacteur des statuts de la faculté de médecine de cette ville et auteur de divers ouvrages. 
+Il est le fils de Pierre de Cahaignes (mort le 13 septembre 1563), originaire de Mathieu, médecin et professeur de médecine réputé à Caen. Jacques est docteur de l’Université de Caen dont il devient le recteur à plusieurs reprises (1574-1575, 1609, 1612) et Professeur du Roy en 1583. Il est rédacteur des statuts de la faculté de médecine de cette ville et auteur de divers ouvrages. 
 Il était lié avec de nombreux savants, en particulier avec Joseph Scaliger. L’ouvrage de Julien Le Paulmier De vino et pomaceo (Traité du vin et du sidre) se termine sur quelques-unes de ses lettres, adressées en latin à divers médecins de Paris.
-Sa devise était « Non est mortale quod opto ». Il portait de gueules à trois épées d’argent en pal, au chef d’argent, à 3 roses de gueules[4].
+Sa devise était « Non est mortale quod opto ». Il portait de gueules à trois épées d’argent en pal, au chef d’argent, à 3 roses de gueules.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Traduction de L’Avare de Plaute en 1580. Réédition par la Société rouennaise de bibliophiles, 1889, publié d’après le manuscrit original, avec une introduction par A. Gasté.
 Traduction du latin de De vino et pomaceo de Le Paulmier en 1589.
